--- a/HeatMapper/AffiliationInfo.xlsx
+++ b/HeatMapper/AffiliationInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailarizona-my.sharepoint.com/personal/cm600286_arizona_edu/Documents/Project Waterfall Research/NeuroSurg-Residency---James/HeatMapper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC1048EDD19A62A05ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB1B8532-16FC-4ED6-85CA-5AB2BF535531}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048EDD19A62A05ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDC918F0-7138-4CDE-8908-A91793D3F0FE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5</v>
+        <v>-100</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
